--- a/Code/Results/Cases/Case_4_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.61468553036291</v>
+        <v>16.1336378423624</v>
       </c>
       <c r="C2">
-        <v>17.41071544603115</v>
+        <v>12.85433496369821</v>
       </c>
       <c r="D2">
-        <v>10.22092856624272</v>
+        <v>14.30960359890199</v>
       </c>
       <c r="E2">
-        <v>9.795499961107801</v>
+        <v>15.15085222293271</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.49908114900638</v>
+        <v>51.40380372964874</v>
       </c>
       <c r="H2">
-        <v>14.2336941906625</v>
+        <v>19.59928824244815</v>
       </c>
       <c r="I2">
-        <v>20.70753362230806</v>
+        <v>27.75036052041423</v>
       </c>
       <c r="J2">
-        <v>5.092034193110203</v>
+        <v>8.954229939833217</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.61965463595773</v>
+        <v>20.05577509288377</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.17083515968574</v>
+        <v>15.72147864068391</v>
       </c>
       <c r="C3">
-        <v>16.17281020407351</v>
+        <v>12.46859528841875</v>
       </c>
       <c r="D3">
-        <v>9.92705705616221</v>
+        <v>14.30078739159286</v>
       </c>
       <c r="E3">
-        <v>9.659078774822733</v>
+        <v>15.17051172976842</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.51270136123639</v>
+        <v>51.1327564781549</v>
       </c>
       <c r="H3">
-        <v>13.97906837288532</v>
+        <v>19.6158682217605</v>
       </c>
       <c r="I3">
-        <v>20.44068639603172</v>
+        <v>27.79229541746646</v>
       </c>
       <c r="J3">
-        <v>5.135390704194113</v>
+        <v>8.973996717003899</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.78703910387048</v>
+        <v>19.94146821478699</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.23656354914671</v>
+        <v>15.4670577010663</v>
       </c>
       <c r="C4">
-        <v>15.37419508395678</v>
+        <v>12.22929965528447</v>
       </c>
       <c r="D4">
-        <v>9.750774827617272</v>
+        <v>14.29834141684143</v>
       </c>
       <c r="E4">
-        <v>9.581650081616781</v>
+        <v>15.18522033258412</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45.31421162128512</v>
+        <v>50.98285864063714</v>
       </c>
       <c r="H4">
-        <v>13.83507687388198</v>
+        <v>19.63052755397703</v>
       </c>
       <c r="I4">
-        <v>20.29873323533943</v>
+        <v>27.82486119810276</v>
       </c>
       <c r="J4">
-        <v>5.163363145667453</v>
+        <v>8.986876989298135</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.26538609326767</v>
+        <v>19.87549397728861</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.84368343369834</v>
+        <v>15.36320748332538</v>
       </c>
       <c r="C5">
-        <v>15.03893797228865</v>
+        <v>12.13133521992943</v>
       </c>
       <c r="D5">
-        <v>9.680025802246002</v>
+        <v>14.29809124057</v>
       </c>
       <c r="E5">
-        <v>9.551651650918064</v>
+        <v>15.19187646700408</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.83150744644693</v>
+        <v>50.92596484706411</v>
       </c>
       <c r="H5">
-        <v>13.77941450988322</v>
+        <v>19.63762386972934</v>
       </c>
       <c r="I5">
-        <v>20.24614899449447</v>
+        <v>27.83983774986796</v>
       </c>
       <c r="J5">
-        <v>5.175101264316688</v>
+        <v>8.992313170704639</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.05041205103111</v>
+        <v>19.84968926824474</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.77770746106414</v>
+        <v>15.34595793359739</v>
       </c>
       <c r="C6">
-        <v>14.98267262922725</v>
+        <v>12.11504620855905</v>
       </c>
       <c r="D6">
-        <v>9.668344955472556</v>
+        <v>14.29809479495895</v>
       </c>
       <c r="E6">
-        <v>9.546763174812149</v>
+        <v>15.19302168057127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.75171028390157</v>
+        <v>50.91677166666221</v>
       </c>
       <c r="H6">
-        <v>13.77035122389231</v>
+        <v>19.63886988487305</v>
       </c>
       <c r="I6">
-        <v>20.23772810079118</v>
+        <v>27.84242735386619</v>
       </c>
       <c r="J6">
-        <v>5.177070836823319</v>
+        <v>8.993227173722209</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.01457857902946</v>
+        <v>19.84547026207437</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.23131444835965</v>
+        <v>15.46565760761456</v>
       </c>
       <c r="C7">
-        <v>15.36971358394134</v>
+        <v>12.22798006544363</v>
       </c>
       <c r="D7">
-        <v>9.749816220239184</v>
+        <v>14.29833501974834</v>
       </c>
       <c r="E7">
-        <v>9.581239269992405</v>
+        <v>15.18530741948609</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>45.30767813629863</v>
+        <v>50.98207434216363</v>
       </c>
       <c r="H7">
-        <v>13.83431410462962</v>
+        <v>19.63061871781331</v>
       </c>
       <c r="I7">
-        <v>20.29800308062822</v>
+        <v>27.82505628263027</v>
       </c>
       <c r="J7">
-        <v>5.163520077660653</v>
+        <v>8.986949544335006</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.26249624719697</v>
+        <v>19.87514156457271</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.12666058161523</v>
+        <v>15.99190527561428</v>
       </c>
       <c r="C8">
-        <v>16.99180408309383</v>
+        <v>12.72193718869632</v>
       </c>
       <c r="D8">
-        <v>10.11876314224461</v>
+        <v>14.30594832051716</v>
       </c>
       <c r="E8">
-        <v>9.747124188339455</v>
+        <v>15.1570828345307</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.80998981278342</v>
+        <v>51.30693997454164</v>
       </c>
       <c r="H8">
-        <v>14.14328273861554</v>
+        <v>19.60407321426915</v>
       </c>
       <c r="I8">
-        <v>20.61083681592821</v>
+        <v>27.76339967838134</v>
       </c>
       <c r="J8">
-        <v>5.106702545453047</v>
+        <v>8.960891494908843</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.33485199348789</v>
+        <v>20.01550156208109</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.47194968618981</v>
+        <v>17.00611073078496</v>
       </c>
       <c r="C9">
-        <v>19.8733936130601</v>
+        <v>13.66436035307222</v>
       </c>
       <c r="D9">
-        <v>10.87370059985374</v>
+        <v>14.34438502744164</v>
       </c>
       <c r="E9">
-        <v>10.124431391773</v>
+        <v>15.1227027254936</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.87249413569197</v>
+        <v>52.0732315088961</v>
       </c>
       <c r="H9">
-        <v>14.8511205860323</v>
+        <v>19.5877097324712</v>
       </c>
       <c r="I9">
-        <v>21.40864855585778</v>
+        <v>27.69694632277466</v>
       </c>
       <c r="J9">
-        <v>5.006051588636588</v>
+        <v>8.915670593109988</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.34769507869925</v>
+        <v>20.32313791572958</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.71429200807719</v>
+        <v>17.73163414655891</v>
       </c>
       <c r="C10">
-        <v>21.81821840258768</v>
+        <v>14.33247776906617</v>
       </c>
       <c r="D10">
-        <v>11.44615726051964</v>
+        <v>14.38688156452355</v>
       </c>
       <c r="E10">
-        <v>10.43590052085248</v>
+        <v>15.11027568704965</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>56.67754970575856</v>
+        <v>52.71198069265418</v>
       </c>
       <c r="H10">
-        <v>15.43893681902459</v>
+        <v>19.59762769242768</v>
       </c>
       <c r="I10">
-        <v>22.12175981132094</v>
+        <v>27.68177704499963</v>
       </c>
       <c r="J10">
-        <v>4.938758656417254</v>
+        <v>8.886003511704414</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.96547991482237</v>
+        <v>20.56744336279937</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.69031141380059</v>
+        <v>18.05577191799222</v>
       </c>
       <c r="C11">
-        <v>22.6681828054225</v>
+        <v>14.62962939336344</v>
       </c>
       <c r="D11">
-        <v>11.71041756671039</v>
+        <v>14.40928512102555</v>
       </c>
       <c r="E11">
-        <v>10.58566461999838</v>
+        <v>15.10741635564731</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>58.42771020971526</v>
+        <v>53.01822937042301</v>
       </c>
       <c r="H11">
-        <v>15.72240559392994</v>
+        <v>19.60693225382735</v>
       </c>
       <c r="I11">
-        <v>22.47696654871201</v>
+        <v>27.68226780728396</v>
       </c>
       <c r="J11">
-        <v>4.909621274989787</v>
+        <v>8.8732737673228</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.73618953374125</v>
+        <v>20.6822171292475</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.05382145208712</v>
+        <v>18.17754059090876</v>
       </c>
       <c r="C12">
-        <v>22.98529431111702</v>
+        <v>14.74106738044051</v>
       </c>
       <c r="D12">
-        <v>11.81105725717709</v>
+        <v>14.41820751971193</v>
       </c>
       <c r="E12">
-        <v>10.64359770195854</v>
+        <v>15.10673566756008</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>59.09344560577284</v>
+        <v>53.13637720249786</v>
       </c>
       <c r="H12">
-        <v>15.83218508505971</v>
+        <v>19.61114622856456</v>
       </c>
       <c r="I12">
-        <v>22.61618606140114</v>
+        <v>27.68352214886532</v>
       </c>
       <c r="J12">
-        <v>4.898803368901385</v>
+        <v>8.868563058126618</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.02355304326845</v>
+        <v>20.72617207719081</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.97579962135037</v>
+        <v>18.15136079741628</v>
       </c>
       <c r="C13">
-        <v>22.91720577395301</v>
+        <v>14.71711722183729</v>
       </c>
       <c r="D13">
-        <v>11.78935686911178</v>
+        <v>14.41626646547487</v>
       </c>
       <c r="E13">
-        <v>10.631065437688</v>
+        <v>15.10686437976542</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>58.94992939021921</v>
+        <v>53.11083635376564</v>
       </c>
       <c r="H13">
-        <v>15.8084315590801</v>
+        <v>19.6102079463693</v>
       </c>
       <c r="I13">
-        <v>22.58598845262627</v>
+        <v>27.68320440049353</v>
       </c>
       <c r="J13">
-        <v>4.90112353182882</v>
+        <v>8.869572717563972</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.96186007523769</v>
+        <v>20.71668417841185</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.72033810861954</v>
+        <v>18.0658101298433</v>
       </c>
       <c r="C14">
-        <v>22.69436547687031</v>
+        <v>14.63881984881874</v>
       </c>
       <c r="D14">
-        <v>11.71868566425434</v>
+        <v>14.41001039985589</v>
       </c>
       <c r="E14">
-        <v>10.59040597122692</v>
+        <v>15.10735229543496</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>58.48241892271187</v>
+        <v>53.02790626770368</v>
       </c>
       <c r="H14">
-        <v>15.7313876101352</v>
+        <v>19.60726509494849</v>
       </c>
       <c r="I14">
-        <v>22.4883241352375</v>
+        <v>27.68234955882744</v>
       </c>
       <c r="J14">
-        <v>4.908726929914534</v>
+        <v>8.872884016645678</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.75991972331726</v>
+        <v>20.68582363436808</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.56307550743184</v>
+        <v>18.01327730883016</v>
       </c>
       <c r="C15">
-        <v>22.55725835219031</v>
+        <v>14.59071576640206</v>
       </c>
       <c r="D15">
-        <v>11.67547257785925</v>
+        <v>14.40623540699909</v>
       </c>
       <c r="E15">
-        <v>10.56566176538141</v>
+        <v>15.10770352753938</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>58.19645375054984</v>
+        <v>52.97739049029763</v>
       </c>
       <c r="H15">
-        <v>15.68451725603335</v>
+        <v>19.60555247228048</v>
       </c>
       <c r="I15">
-        <v>22.42912403926341</v>
+        <v>27.68196524811779</v>
       </c>
       <c r="J15">
-        <v>4.91341245946052</v>
+        <v>8.874926567019884</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.63564780225627</v>
+        <v>20.6669838925828</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.6496411159429</v>
+        <v>17.7103211239675</v>
       </c>
       <c r="C16">
-        <v>21.76199230575054</v>
+        <v>14.31291196671225</v>
       </c>
       <c r="D16">
-        <v>11.42896564850195</v>
+        <v>14.38547899963085</v>
       </c>
       <c r="E16">
-        <v>10.42628045673866</v>
+        <v>15.11051880164045</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>56.56357484282776</v>
+        <v>52.69227570015612</v>
       </c>
       <c r="H16">
-        <v>15.42074510762773</v>
+        <v>19.59711618826715</v>
       </c>
       <c r="I16">
-        <v>22.099189654008</v>
+        <v>27.68189420424154</v>
       </c>
       <c r="J16">
-        <v>4.940692824872369</v>
+        <v>8.886850811302292</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.91447204381109</v>
+        <v>20.56001324329402</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.07816693427974</v>
+        <v>17.52286160410779</v>
       </c>
       <c r="C17">
-        <v>21.26538804918417</v>
+        <v>14.14066881587027</v>
       </c>
       <c r="D17">
-        <v>11.27873304125082</v>
+        <v>14.37353032586931</v>
       </c>
       <c r="E17">
-        <v>10.34288235256194</v>
+        <v>15.11296172776307</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>55.56688861092899</v>
+        <v>52.52132997850752</v>
       </c>
       <c r="H17">
-        <v>15.26312857831427</v>
+        <v>19.59316948560757</v>
       </c>
       <c r="I17">
-        <v>21.90486969520063</v>
+        <v>27.68374797062503</v>
       </c>
       <c r="J17">
-        <v>4.957808505142594</v>
+        <v>8.894361860897297</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.46382432049698</v>
+        <v>20.49530055376109</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.74530943453188</v>
+        <v>17.4144907634188</v>
       </c>
       <c r="C18">
-        <v>20.97646761819579</v>
+        <v>14.04096707233236</v>
       </c>
       <c r="D18">
-        <v>11.19268322273703</v>
+        <v>14.36694709671513</v>
       </c>
       <c r="E18">
-        <v>10.29567002709262</v>
+        <v>15.11462978934613</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>54.99540752499467</v>
+        <v>52.42448718932985</v>
       </c>
       <c r="H18">
-        <v>15.17397571629755</v>
+        <v>19.59135052566745</v>
       </c>
       <c r="I18">
-        <v>21.79598416609815</v>
+        <v>27.6855096270043</v>
       </c>
       <c r="J18">
-        <v>4.96779150681265</v>
+        <v>8.898754135861543</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.20153156907822</v>
+        <v>20.45842383881272</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.63188795921839</v>
+        <v>17.37770796201868</v>
       </c>
       <c r="C19">
-        <v>20.8780726308983</v>
+        <v>14.00710482581151</v>
       </c>
       <c r="D19">
-        <v>11.16360985508779</v>
+        <v>14.36476790659546</v>
       </c>
       <c r="E19">
-        <v>10.2798129306707</v>
+        <v>15.11523971623476</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>54.80221646391412</v>
+        <v>52.39195443171333</v>
       </c>
       <c r="H19">
-        <v>15.14404487124461</v>
+        <v>19.59081208053916</v>
       </c>
       <c r="I19">
-        <v>21.75960419750671</v>
+        <v>27.68622534824886</v>
       </c>
       <c r="J19">
-        <v>4.971195269359526</v>
+        <v>8.900253682523775</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.11218650365478</v>
+        <v>20.44599806848594</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.13943025801915</v>
+        <v>17.54287476354633</v>
       </c>
       <c r="C20">
-        <v>21.31859091169331</v>
+        <v>14.15907065536839</v>
       </c>
       <c r="D20">
-        <v>11.2946882378855</v>
+        <v>14.37477235843374</v>
       </c>
       <c r="E20">
-        <v>10.3516815720852</v>
+        <v>15.11267445635365</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>55.67280156017562</v>
+        <v>52.53937473605086</v>
       </c>
       <c r="H20">
-        <v>15.2797506189484</v>
+        <v>19.59354292266588</v>
       </c>
       <c r="I20">
-        <v>21.92525512864941</v>
+        <v>27.68347861786922</v>
       </c>
       <c r="J20">
-        <v>4.955972151559321</v>
+        <v>8.893554835676404</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.51211507765638</v>
+        <v>20.50215391348909</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.7955364767895</v>
+        <v>18.09096585476471</v>
       </c>
       <c r="C21">
-        <v>22.75994592665779</v>
+        <v>14.66184802099201</v>
       </c>
       <c r="D21">
-        <v>11.73942780844495</v>
+        <v>14.41183607948024</v>
       </c>
       <c r="E21">
-        <v>10.6023149926851</v>
+        <v>15.10719806861549</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>58.61965440342212</v>
+        <v>53.05220636628273</v>
       </c>
       <c r="H21">
-        <v>15.7539500772416</v>
+        <v>19.60811073279679</v>
       </c>
       <c r="I21">
-        <v>22.51688033172604</v>
+        <v>27.68257160662379</v>
       </c>
       <c r="J21">
-        <v>4.906487736762852</v>
+        <v>8.871908431711869</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.81935445863369</v>
+        <v>20.69487500223463</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.84254915912843</v>
+        <v>18.44343941491429</v>
       </c>
       <c r="C22">
-        <v>23.67439550015917</v>
+        <v>14.98406272245844</v>
       </c>
       <c r="D22">
-        <v>12.03343579649983</v>
+        <v>14.43861446148548</v>
       </c>
       <c r="E22">
-        <v>10.77326833841479</v>
+        <v>15.10596259452075</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>60.5632312604716</v>
+        <v>53.40002811567508</v>
       </c>
       <c r="H22">
-        <v>16.07813910484543</v>
+        <v>19.62165685851626</v>
       </c>
       <c r="I22">
-        <v>22.93114515035365</v>
+        <v>27.68820893204659</v>
       </c>
       <c r="J22">
-        <v>4.875407011479736</v>
+        <v>8.858400901010823</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.64767202326336</v>
+        <v>20.82368599119073</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.2868853324224</v>
+        <v>18.25588135733798</v>
       </c>
       <c r="C23">
-        <v>23.18876911539103</v>
+        <v>14.81270855216882</v>
       </c>
       <c r="D23">
-        <v>11.87620137005839</v>
+        <v>14.42408966830902</v>
       </c>
       <c r="E23">
-        <v>10.68135086086414</v>
+        <v>15.10640747664222</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>59.52417654142432</v>
+        <v>53.21325759724762</v>
       </c>
       <c r="H23">
-        <v>15.90376064328344</v>
+        <v>19.61405843006127</v>
       </c>
       <c r="I23">
-        <v>22.70741979554094</v>
+        <v>27.68462846655141</v>
       </c>
       <c r="J23">
-        <v>4.891878587138822</v>
+        <v>8.865551719412194</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.20788851669997</v>
+        <v>20.75468605330621</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.11174655025966</v>
+        <v>17.53382866667927</v>
       </c>
       <c r="C24">
-        <v>21.29454855582153</v>
+        <v>14.15075328340192</v>
       </c>
       <c r="D24">
-        <v>11.28747389492986</v>
+        <v>14.37420994375544</v>
       </c>
       <c r="E24">
-        <v>10.34770116194363</v>
+        <v>15.11280351073885</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>55.62491357394833</v>
+        <v>52.53121222182331</v>
       </c>
       <c r="H24">
-        <v>15.27223124673754</v>
+        <v>19.59337268995564</v>
       </c>
       <c r="I24">
-        <v>21.91603007525926</v>
+        <v>27.68359822495862</v>
       </c>
       <c r="J24">
-        <v>4.95680192197131</v>
+        <v>8.893919461019188</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.49029283874309</v>
+        <v>20.49905448720271</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.60564507403245</v>
+        <v>16.73458715075612</v>
       </c>
       <c r="C25">
-        <v>19.12491091182245</v>
+        <v>13.4131189236539</v>
       </c>
       <c r="D25">
-        <v>10.66628436649506</v>
+        <v>14.33147603184542</v>
       </c>
       <c r="E25">
-        <v>10.01653778149201</v>
+        <v>15.12975299375662</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.4876552756124</v>
+        <v>51.85237966034417</v>
       </c>
       <c r="H25">
-        <v>14.64815090987072</v>
+        <v>19.58829467659553</v>
       </c>
       <c r="I25">
-        <v>21.17158422936463</v>
+        <v>27.70904412648193</v>
       </c>
       <c r="J25">
-        <v>5.032119959741296</v>
+        <v>8.927277502836501</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.81363550008769</v>
+        <v>20.23659201922778</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_170/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_170/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.1336378423624</v>
+        <v>20.61468553036298</v>
       </c>
       <c r="C2">
-        <v>12.85433496369821</v>
+        <v>17.41071544603109</v>
       </c>
       <c r="D2">
-        <v>14.30960359890199</v>
+        <v>10.22092856624283</v>
       </c>
       <c r="E2">
-        <v>15.15085222293271</v>
+        <v>9.795499961107875</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>51.40380372964874</v>
+        <v>48.49908114900631</v>
       </c>
       <c r="H2">
-        <v>19.59928824244815</v>
+        <v>14.2336941906624</v>
       </c>
       <c r="I2">
-        <v>27.75036052041423</v>
+        <v>20.7075336223079</v>
       </c>
       <c r="J2">
-        <v>8.954229939833217</v>
+        <v>5.092034193110205</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.05577509288377</v>
+        <v>16.61965463595772</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.72147864068391</v>
+        <v>19.17083515968568</v>
       </c>
       <c r="C3">
-        <v>12.46859528841875</v>
+        <v>16.17281020407371</v>
       </c>
       <c r="D3">
-        <v>14.30078739159286</v>
+        <v>9.92705705616228</v>
       </c>
       <c r="E3">
-        <v>15.17051172976842</v>
+        <v>9.659078774822721</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>51.1327564781549</v>
+        <v>46.51270136123648</v>
       </c>
       <c r="H3">
-        <v>19.6158682217605</v>
+        <v>13.97906837288538</v>
       </c>
       <c r="I3">
-        <v>27.79229541746646</v>
+        <v>20.44068639603187</v>
       </c>
       <c r="J3">
-        <v>8.973996717003899</v>
+        <v>5.13539070419411</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.94146821478699</v>
+        <v>15.78703910387047</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.4670577010663</v>
+        <v>18.23656354914677</v>
       </c>
       <c r="C4">
-        <v>12.22929965528447</v>
+        <v>15.37419508395678</v>
       </c>
       <c r="D4">
-        <v>14.29834141684143</v>
+        <v>9.750774827617308</v>
       </c>
       <c r="E4">
-        <v>15.18522033258412</v>
+        <v>9.581650081616875</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>50.98285864063714</v>
+        <v>45.31421162128538</v>
       </c>
       <c r="H4">
-        <v>19.63052755397703</v>
+        <v>13.83507687388203</v>
       </c>
       <c r="I4">
-        <v>27.82486119810276</v>
+        <v>20.29873323533954</v>
       </c>
       <c r="J4">
-        <v>8.986876989298135</v>
+        <v>5.163363145667485</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.87549397728861</v>
+        <v>15.26538609326769</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.36320748332538</v>
+        <v>17.84368343369823</v>
       </c>
       <c r="C5">
-        <v>12.13133521992943</v>
+        <v>15.03893797228855</v>
       </c>
       <c r="D5">
-        <v>14.29809124057</v>
+        <v>9.680025802245984</v>
       </c>
       <c r="E5">
-        <v>15.19187646700408</v>
+        <v>9.551651650918201</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>50.92596484706411</v>
+        <v>44.83150744644736</v>
       </c>
       <c r="H5">
-        <v>19.63762386972934</v>
+        <v>13.77941450988337</v>
       </c>
       <c r="I5">
-        <v>27.83983774986796</v>
+        <v>20.2461489944947</v>
       </c>
       <c r="J5">
-        <v>8.992313170704639</v>
+        <v>5.175101264316686</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.84968926824474</v>
+        <v>15.05041205103118</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.34595793359739</v>
+        <v>17.77770746106413</v>
       </c>
       <c r="C6">
-        <v>12.11504620855905</v>
+        <v>14.98267262922732</v>
       </c>
       <c r="D6">
-        <v>14.29809479495895</v>
+        <v>9.668344955472435</v>
       </c>
       <c r="E6">
-        <v>15.19302168057127</v>
+        <v>9.546763174812011</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>50.91677166666221</v>
+        <v>44.75171028390156</v>
       </c>
       <c r="H6">
-        <v>19.63886988487305</v>
+        <v>13.77035122389229</v>
       </c>
       <c r="I6">
-        <v>27.84242735386619</v>
+        <v>20.23772810079118</v>
       </c>
       <c r="J6">
-        <v>8.993227173722209</v>
+        <v>5.177070836823255</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.84547026207437</v>
+        <v>15.01457857902939</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.46565760761456</v>
+        <v>18.23131444835964</v>
       </c>
       <c r="C7">
-        <v>12.22798006544363</v>
+        <v>15.36971358394138</v>
       </c>
       <c r="D7">
-        <v>14.29833501974834</v>
+        <v>9.749816220239227</v>
       </c>
       <c r="E7">
-        <v>15.18530741948609</v>
+        <v>9.581239269992437</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>50.98207434216363</v>
+        <v>45.30767813629862</v>
       </c>
       <c r="H7">
-        <v>19.63061871781331</v>
+        <v>13.83431410462965</v>
       </c>
       <c r="I7">
-        <v>27.82505628263027</v>
+        <v>20.29800308062827</v>
       </c>
       <c r="J7">
-        <v>8.986949544335006</v>
+        <v>5.163520077660651</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.87514156457271</v>
+        <v>15.26249624719697</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.99190527561428</v>
+        <v>20.12666058161528</v>
       </c>
       <c r="C8">
-        <v>12.72193718869632</v>
+        <v>16.99180408309384</v>
       </c>
       <c r="D8">
-        <v>14.30594832051716</v>
+        <v>10.11876314224469</v>
       </c>
       <c r="E8">
-        <v>15.1570828345307</v>
+        <v>9.747124188339422</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>51.30693997454164</v>
+        <v>47.80998981278348</v>
       </c>
       <c r="H8">
-        <v>19.60407321426915</v>
+        <v>14.14328273861554</v>
       </c>
       <c r="I8">
-        <v>27.76339967838134</v>
+        <v>20.61083681592824</v>
       </c>
       <c r="J8">
-        <v>8.960891494908843</v>
+        <v>5.106702545452961</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.01550156208109</v>
+        <v>16.33485199348788</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.00611073078496</v>
+        <v>23.47194968618983</v>
       </c>
       <c r="C9">
-        <v>13.66436035307222</v>
+        <v>19.87339361305998</v>
       </c>
       <c r="D9">
-        <v>14.34438502744164</v>
+        <v>10.87370059985366</v>
       </c>
       <c r="E9">
-        <v>15.1227027254936</v>
+        <v>10.12443139177293</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.0732315088961</v>
+        <v>52.87249413569202</v>
       </c>
       <c r="H9">
-        <v>19.5877097324712</v>
+        <v>14.85112058603229</v>
       </c>
       <c r="I9">
-        <v>27.69694632277466</v>
+        <v>21.40864855585778</v>
       </c>
       <c r="J9">
-        <v>8.915670593109988</v>
+        <v>5.006051588636586</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.32313791572958</v>
+        <v>18.34769507869923</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.73163414655891</v>
+        <v>25.71429200807707</v>
       </c>
       <c r="C10">
-        <v>14.33247776906617</v>
+        <v>21.81821840258758</v>
       </c>
       <c r="D10">
-        <v>14.38688156452355</v>
+        <v>11.44615726051962</v>
       </c>
       <c r="E10">
-        <v>15.11027568704965</v>
+        <v>10.43590052085247</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>52.71198069265418</v>
+        <v>56.67754970575874</v>
       </c>
       <c r="H10">
-        <v>19.59762769242768</v>
+        <v>15.43893681902471</v>
       </c>
       <c r="I10">
-        <v>27.68177704499963</v>
+        <v>22.12175981132115</v>
       </c>
       <c r="J10">
-        <v>8.886003511704414</v>
+        <v>4.938758656417311</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.56744336279937</v>
+        <v>19.96547991482228</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.05577191799222</v>
+        <v>26.69031141380056</v>
       </c>
       <c r="C11">
-        <v>14.62962939336344</v>
+        <v>22.66818280542251</v>
       </c>
       <c r="D11">
-        <v>14.40928512102555</v>
+        <v>11.71041756671044</v>
       </c>
       <c r="E11">
-        <v>15.10741635564731</v>
+        <v>10.58566461999837</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.01822937042301</v>
+        <v>58.42771020971528</v>
       </c>
       <c r="H11">
-        <v>19.60693225382735</v>
+        <v>15.72240559392996</v>
       </c>
       <c r="I11">
-        <v>27.68226780728396</v>
+        <v>22.47696654871206</v>
       </c>
       <c r="J11">
-        <v>8.8732737673228</v>
+        <v>4.90962127498967</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.6822171292475</v>
+        <v>20.73618953374125</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.17754059090876</v>
+        <v>27.05382145208703</v>
       </c>
       <c r="C12">
-        <v>14.74106738044051</v>
+        <v>22.9852943111171</v>
       </c>
       <c r="D12">
-        <v>14.41820751971193</v>
+        <v>11.81105725717711</v>
       </c>
       <c r="E12">
-        <v>15.10673566756008</v>
+        <v>10.64359770195859</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>53.13637720249786</v>
+        <v>59.0934456057731</v>
       </c>
       <c r="H12">
-        <v>19.61114622856456</v>
+        <v>15.83218508505978</v>
       </c>
       <c r="I12">
-        <v>27.68352214886532</v>
+        <v>22.6161860614013</v>
       </c>
       <c r="J12">
-        <v>8.868563058126618</v>
+        <v>4.898803368901417</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.72617207719081</v>
+        <v>21.02355304326844</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.15136079741628</v>
+        <v>26.97579962135027</v>
       </c>
       <c r="C13">
-        <v>14.71711722183729</v>
+        <v>22.91720577395317</v>
       </c>
       <c r="D13">
-        <v>14.41626646547487</v>
+        <v>11.78935686911181</v>
       </c>
       <c r="E13">
-        <v>15.10686437976542</v>
+        <v>10.63106543768805</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>53.11083635376564</v>
+        <v>58.94992939021917</v>
       </c>
       <c r="H13">
-        <v>19.6102079463693</v>
+        <v>15.80843155908014</v>
       </c>
       <c r="I13">
-        <v>27.68320440049353</v>
+        <v>22.58598845262636</v>
       </c>
       <c r="J13">
-        <v>8.869572717563972</v>
+        <v>4.901123531828848</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.71668417841185</v>
+        <v>20.96186007523766</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.0658101298433</v>
+        <v>26.72033810861964</v>
       </c>
       <c r="C14">
-        <v>14.63881984881874</v>
+        <v>22.69436547687026</v>
       </c>
       <c r="D14">
-        <v>14.41001039985589</v>
+        <v>11.71868566425433</v>
       </c>
       <c r="E14">
-        <v>15.10735229543496</v>
+        <v>10.59040597122697</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>53.02790626770368</v>
+        <v>58.48241892271177</v>
       </c>
       <c r="H14">
-        <v>19.60726509494849</v>
+        <v>15.73138761013518</v>
       </c>
       <c r="I14">
-        <v>27.68234955882744</v>
+        <v>22.48832413523744</v>
       </c>
       <c r="J14">
-        <v>8.872884016645678</v>
+        <v>4.908726929914565</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.68582363436808</v>
+        <v>20.75991972331724</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.01327730883016</v>
+        <v>26.56307550743193</v>
       </c>
       <c r="C15">
-        <v>14.59071576640206</v>
+        <v>22.55725835219037</v>
       </c>
       <c r="D15">
-        <v>14.40623540699909</v>
+        <v>11.6754725778592</v>
       </c>
       <c r="E15">
-        <v>15.10770352753938</v>
+        <v>10.56566176538144</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>52.97739049029763</v>
+        <v>58.19645375054977</v>
       </c>
       <c r="H15">
-        <v>19.60555247228048</v>
+        <v>15.68451725603327</v>
       </c>
       <c r="I15">
-        <v>27.68196524811779</v>
+        <v>22.42912403926334</v>
       </c>
       <c r="J15">
-        <v>8.874926567019884</v>
+        <v>4.913412459460577</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.6669838925828</v>
+        <v>20.63564780225628</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.7103211239675</v>
+        <v>25.64964111594288</v>
       </c>
       <c r="C16">
-        <v>14.31291196671225</v>
+        <v>21.76199230575068</v>
       </c>
       <c r="D16">
-        <v>14.38547899963085</v>
+        <v>11.42896564850189</v>
       </c>
       <c r="E16">
-        <v>15.11051880164045</v>
+        <v>10.42628045673866</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>52.69227570015612</v>
+        <v>56.5635748428279</v>
       </c>
       <c r="H16">
-        <v>19.59711618826715</v>
+        <v>15.42074510762777</v>
       </c>
       <c r="I16">
-        <v>27.68189420424154</v>
+        <v>22.09918965400816</v>
       </c>
       <c r="J16">
-        <v>8.886850811302292</v>
+        <v>4.940692824872431</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.56001324329402</v>
+        <v>19.91447204381109</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.52286160410779</v>
+        <v>25.07816693427979</v>
       </c>
       <c r="C17">
-        <v>14.14066881587027</v>
+        <v>21.26538804918421</v>
       </c>
       <c r="D17">
-        <v>14.37353032586931</v>
+        <v>11.27873304125086</v>
       </c>
       <c r="E17">
-        <v>15.11296172776307</v>
+        <v>10.34288235256199</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>52.52132997850752</v>
+        <v>55.56688861092907</v>
       </c>
       <c r="H17">
-        <v>19.59316948560757</v>
+        <v>15.26312857831429</v>
       </c>
       <c r="I17">
-        <v>27.68374797062503</v>
+        <v>21.90486969520061</v>
       </c>
       <c r="J17">
-        <v>8.894361860897297</v>
+        <v>4.95780850514259</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.49530055376109</v>
+        <v>19.46382432049701</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.4144907634188</v>
+        <v>24.7453094345318</v>
       </c>
       <c r="C18">
-        <v>14.04096707233236</v>
+        <v>20.97646761819573</v>
       </c>
       <c r="D18">
-        <v>14.36694709671513</v>
+        <v>11.19268322273694</v>
       </c>
       <c r="E18">
-        <v>15.11462978934613</v>
+        <v>10.29567002709251</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>52.42448718932985</v>
+        <v>54.99540752499487</v>
       </c>
       <c r="H18">
-        <v>19.59135052566745</v>
+        <v>15.17397571629765</v>
       </c>
       <c r="I18">
-        <v>27.6855096270043</v>
+        <v>21.79598416609831</v>
       </c>
       <c r="J18">
-        <v>8.898754135861543</v>
+        <v>4.967791506812599</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.45842383881272</v>
+        <v>19.20153156907821</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.37770796201868</v>
+        <v>24.63188795921838</v>
       </c>
       <c r="C19">
-        <v>14.00710482581151</v>
+        <v>20.87807263089831</v>
       </c>
       <c r="D19">
-        <v>14.36476790659546</v>
+        <v>11.16360985508786</v>
       </c>
       <c r="E19">
-        <v>15.11523971623476</v>
+        <v>10.27981293067069</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>52.39195443171333</v>
+        <v>54.8022164639142</v>
       </c>
       <c r="H19">
-        <v>19.59081208053916</v>
+        <v>15.14404487124471</v>
       </c>
       <c r="I19">
-        <v>27.68622534824886</v>
+        <v>21.75960419750678</v>
       </c>
       <c r="J19">
-        <v>8.900253682523775</v>
+        <v>4.97119526935947</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.44599806848594</v>
+        <v>19.11218650365481</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.54287476354633</v>
+        <v>25.13943025801917</v>
       </c>
       <c r="C20">
-        <v>14.15907065536839</v>
+        <v>21.31859091169343</v>
       </c>
       <c r="D20">
-        <v>14.37477235843374</v>
+        <v>11.29468823788549</v>
       </c>
       <c r="E20">
-        <v>15.11267445635365</v>
+        <v>10.35168157208522</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>52.53937473605086</v>
+        <v>55.67280156017556</v>
       </c>
       <c r="H20">
-        <v>19.59354292266588</v>
+        <v>15.27975061894842</v>
       </c>
       <c r="I20">
-        <v>27.68347861786922</v>
+        <v>21.92525512864944</v>
       </c>
       <c r="J20">
-        <v>8.893554835676404</v>
+        <v>4.955972151559378</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.50215391348909</v>
+        <v>19.51211507765639</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.09096585476471</v>
+        <v>26.79553647678948</v>
       </c>
       <c r="C21">
-        <v>14.66184802099201</v>
+        <v>22.75994592665769</v>
       </c>
       <c r="D21">
-        <v>14.41183607948024</v>
+        <v>11.73942780844497</v>
       </c>
       <c r="E21">
-        <v>15.10719806861549</v>
+        <v>10.60231499268507</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>53.05220636628273</v>
+        <v>58.61965440342226</v>
       </c>
       <c r="H21">
-        <v>19.60811073279679</v>
+        <v>15.75395007724165</v>
       </c>
       <c r="I21">
-        <v>27.68257160662379</v>
+        <v>22.51688033172614</v>
       </c>
       <c r="J21">
-        <v>8.871908431711869</v>
+        <v>4.906487736762789</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.69487500223463</v>
+        <v>20.81935445863368</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.44343941491429</v>
+        <v>27.84254915912852</v>
       </c>
       <c r="C22">
-        <v>14.98406272245844</v>
+        <v>23.67439550015925</v>
       </c>
       <c r="D22">
-        <v>14.43861446148548</v>
+        <v>12.03343579649988</v>
       </c>
       <c r="E22">
-        <v>15.10596259452075</v>
+        <v>10.77326833841477</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>53.40002811567508</v>
+        <v>60.56323126047199</v>
       </c>
       <c r="H22">
-        <v>19.62165685851626</v>
+        <v>16.07813910484547</v>
       </c>
       <c r="I22">
-        <v>27.68820893204659</v>
+        <v>22.93114515035376</v>
       </c>
       <c r="J22">
-        <v>8.858400901010823</v>
+        <v>4.875407011479655</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.82368599119073</v>
+        <v>21.64767202326345</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.25588135733798</v>
+        <v>27.28688533242246</v>
       </c>
       <c r="C23">
-        <v>14.81270855216882</v>
+        <v>23.18876911539102</v>
       </c>
       <c r="D23">
-        <v>14.42408966830902</v>
+        <v>11.87620137005837</v>
       </c>
       <c r="E23">
-        <v>15.10640747664222</v>
+        <v>10.68135086086413</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>53.21325759724762</v>
+        <v>59.52417654142437</v>
       </c>
       <c r="H23">
-        <v>19.61405843006127</v>
+        <v>15.90376064328341</v>
       </c>
       <c r="I23">
-        <v>27.68462846655141</v>
+        <v>22.70741979554088</v>
       </c>
       <c r="J23">
-        <v>8.865551719412194</v>
+        <v>4.891878587138793</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.75468605330621</v>
+        <v>21.2078885167</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.53382866667927</v>
+        <v>25.11174655025964</v>
       </c>
       <c r="C24">
-        <v>14.15075328340192</v>
+        <v>21.29454855582132</v>
       </c>
       <c r="D24">
-        <v>14.37420994375544</v>
+        <v>11.28747389492991</v>
       </c>
       <c r="E24">
-        <v>15.11280351073885</v>
+        <v>10.34770116194374</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>52.53121222182331</v>
+        <v>55.62491357394852</v>
       </c>
       <c r="H24">
-        <v>19.59337268995564</v>
+        <v>15.27223124673764</v>
       </c>
       <c r="I24">
-        <v>27.68359822495862</v>
+        <v>21.91603007525939</v>
       </c>
       <c r="J24">
-        <v>8.893919461019188</v>
+        <v>4.956801921971341</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.49905448720271</v>
+        <v>19.49029283874299</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.73458715075612</v>
+        <v>22.60564507403238</v>
       </c>
       <c r="C25">
-        <v>13.4131189236539</v>
+        <v>19.12491091182245</v>
       </c>
       <c r="D25">
-        <v>14.33147603184542</v>
+        <v>10.66628436649499</v>
       </c>
       <c r="E25">
-        <v>15.12975299375662</v>
+        <v>10.01653778149199</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.85237966034417</v>
+        <v>51.48765527561251</v>
       </c>
       <c r="H25">
-        <v>19.58829467659553</v>
+        <v>14.64815090987075</v>
       </c>
       <c r="I25">
-        <v>27.70904412648193</v>
+        <v>21.17158422936474</v>
       </c>
       <c r="J25">
-        <v>8.927277502836501</v>
+        <v>5.03211995974127</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.23659201922778</v>
+        <v>17.8136355000877</v>
       </c>
       <c r="N25">
         <v>0</v>
